--- a/m n° 001.xlsx
+++ b/m n° 001.xlsx
@@ -7,12 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="img_5.jpg" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="img_1.jpg" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="street.jpg" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="img_2.jpg" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="img_3.jpg" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="img_4.jpg" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="img_1.jpg" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="street.jpg" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="img_2.jpg" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="img_3.jpg" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="img_4.jpg" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="img_5.jpg" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,33 +464,25 @@
           <t>Duration</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Duration</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>62.65625</v>
+        <v>60.1875</v>
       </c>
       <c r="E2" t="n">
-        <v>100.625</v>
+        <v>64.5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.311767578125</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.311767578125</v>
+        <v>0.2998046875</v>
       </c>
     </row>
     <row r="3">
@@ -498,22 +490,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="C3" t="n">
-        <v>-94</v>
+        <v>-107</v>
       </c>
       <c r="D3" t="n">
         <v>90.5</v>
       </c>
       <c r="E3" t="n">
-        <v>101.125</v>
+        <v>64.8125</v>
       </c>
       <c r="F3" t="n">
-        <v>1.1083984375</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.1083984375</v>
+        <v>0.8271484375</v>
       </c>
     </row>
     <row r="4">
@@ -524,19 +513,16 @@
         <v>-1</v>
       </c>
       <c r="C4" t="n">
-        <v>-68</v>
+        <v>-43</v>
       </c>
       <c r="D4" t="n">
-        <v>46.03125</v>
+        <v>90.5</v>
       </c>
       <c r="E4" t="n">
-        <v>102.25</v>
+        <v>65.6875</v>
       </c>
       <c r="F4" t="n">
-        <v>0.18408203125</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.18408203125</v>
+        <v>0.494873046875</v>
       </c>
     </row>
     <row r="5">
@@ -544,22 +530,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-8</v>
+        <v>112</v>
       </c>
       <c r="C5" t="n">
-        <v>-58</v>
+        <v>82</v>
       </c>
       <c r="D5" t="n">
-        <v>49.34375</v>
+        <v>90.5</v>
       </c>
       <c r="E5" t="n">
-        <v>102.4375</v>
+        <v>66.3125</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2117919921875</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.2117919921875</v>
+        <v>0.407470703125</v>
       </c>
     </row>
     <row r="6">
@@ -567,22 +550,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>-58</v>
+        <v>70</v>
       </c>
       <c r="D6" t="n">
         <v>90.5</v>
       </c>
       <c r="E6" t="n">
-        <v>102.875</v>
+        <v>66.75</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7138671875</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.7138671875</v>
+        <v>0.76806640625</v>
       </c>
     </row>
     <row r="7">
@@ -590,22 +570,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="D7" t="n">
-        <v>89.625</v>
+        <v>75.6875</v>
       </c>
       <c r="E7" t="n">
-        <v>103.625</v>
+        <v>67.5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.466064453125</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.466064453125</v>
+        <v>0.39599609375</v>
       </c>
     </row>
     <row r="8">
@@ -613,22 +590,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-57</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>-91</v>
       </c>
       <c r="D8" t="n">
         <v>90.5</v>
       </c>
       <c r="E8" t="n">
-        <v>104.0625</v>
+        <v>67.9375</v>
       </c>
       <c r="F8" t="n">
-        <v>0.64794921875</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.64794921875</v>
+        <v>0.489990234375</v>
       </c>
     </row>
     <row r="9">
@@ -636,22 +610,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>96</v>
+        <v>-127</v>
       </c>
       <c r="C9" t="n">
-        <v>-122</v>
+        <v>-92</v>
       </c>
       <c r="D9" t="n">
-        <v>67.8125</v>
+        <v>90.5</v>
       </c>
       <c r="E9" t="n">
-        <v>104.8125</v>
+        <v>68.4375</v>
       </c>
       <c r="F9" t="n">
-        <v>0.280029296875</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.280029296875</v>
+        <v>0.51611328125</v>
       </c>
     </row>
     <row r="10">
@@ -659,22 +630,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-100</v>
+        <v>45</v>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D10" t="n">
         <v>90.5</v>
       </c>
       <c r="E10" t="n">
-        <v>105.3125</v>
+        <v>69.0625</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6328125</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.6328125</v>
+        <v>1.400390625</v>
       </c>
     </row>
     <row r="11">
@@ -682,68 +650,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>-61</v>
+        <v>-107</v>
       </c>
       <c r="D11" t="n">
         <v>90.5</v>
       </c>
       <c r="E11" t="n">
-        <v>106.0625</v>
+        <v>70.5625</v>
       </c>
       <c r="F11" t="n">
-        <v>0.744140625</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.744140625</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>58</v>
-      </c>
-      <c r="C12" t="n">
-        <v>100</v>
-      </c>
-      <c r="D12" t="n">
-        <v>79.5625</v>
-      </c>
-      <c r="E12" t="n">
-        <v>107</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.196044921875</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.196044921875</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-113</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-81</v>
-      </c>
-      <c r="D13" t="n">
-        <v>55.59375</v>
-      </c>
-      <c r="E13" t="n">
-        <v>107.25</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.236083984375</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.236083984375</v>
+        <v>0.89990234375</v>
       </c>
     </row>
   </sheetData>
@@ -757,7 +676,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -791,33 +710,25 @@
           <t>Duration</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Duration</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>27</v>
+        <v>-7</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>60.1875</v>
+        <v>61.40625</v>
       </c>
       <c r="E2" t="n">
-        <v>64.5</v>
+        <v>76.5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2998046875</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.2998046875</v>
+        <v>0.303955078125</v>
       </c>
     </row>
     <row r="3">
@@ -825,22 +736,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>91</v>
+        <v>-102</v>
       </c>
       <c r="C3" t="n">
-        <v>-107</v>
+        <v>-78</v>
       </c>
       <c r="D3" t="n">
         <v>90.5</v>
       </c>
       <c r="E3" t="n">
-        <v>64.8125</v>
+        <v>77</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8271484375</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.8271484375</v>
+        <v>2.240234375</v>
       </c>
     </row>
     <row r="4">
@@ -848,22 +756,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1</v>
+        <v>54</v>
       </c>
       <c r="C4" t="n">
-        <v>-43</v>
+        <v>-120</v>
       </c>
       <c r="D4" t="n">
         <v>90.5</v>
       </c>
       <c r="E4" t="n">
-        <v>65.6875</v>
+        <v>79.375</v>
       </c>
       <c r="F4" t="n">
-        <v>0.494873046875</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.494873046875</v>
+        <v>1.5263671875</v>
       </c>
     </row>
     <row r="5">
@@ -871,22 +776,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>112</v>
+        <v>-93</v>
       </c>
       <c r="C5" t="n">
-        <v>82</v>
+        <v>-95</v>
       </c>
       <c r="D5" t="n">
         <v>90.5</v>
       </c>
       <c r="E5" t="n">
-        <v>66.3125</v>
+        <v>80.9375</v>
       </c>
       <c r="F5" t="n">
-        <v>0.407470703125</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.407470703125</v>
+        <v>1.4775390625</v>
       </c>
     </row>
     <row r="6">
@@ -894,22 +796,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="C6" t="n">
-        <v>70</v>
+        <v>-75</v>
       </c>
       <c r="D6" t="n">
-        <v>90.5</v>
+        <v>49.34375</v>
       </c>
       <c r="E6" t="n">
-        <v>66.75</v>
+        <v>82.5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.76806640625</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.76806640625</v>
+        <v>0.161865234375</v>
       </c>
     </row>
     <row r="7">
@@ -917,114 +816,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="C7" t="n">
-        <v>66</v>
+        <v>-108</v>
       </c>
       <c r="D7" t="n">
-        <v>75.6875</v>
+        <v>90.5</v>
       </c>
       <c r="E7" t="n">
-        <v>67.5</v>
+        <v>82.75</v>
       </c>
       <c r="F7" t="n">
-        <v>0.39599609375</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.39599609375</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>12</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-91</v>
-      </c>
-      <c r="D8" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="E8" t="n">
-        <v>67.9375</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.489990234375</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.489990234375</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-127</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-92</v>
-      </c>
-      <c r="D9" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>68.4375</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.51611328125</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.51611328125</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>45</v>
-      </c>
-      <c r="C10" t="n">
-        <v>35</v>
-      </c>
-      <c r="D10" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>69.0625</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.400390625</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.400390625</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>25</v>
-      </c>
-      <c r="C11" t="n">
-        <v>-107</v>
-      </c>
-      <c r="D11" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="E11" t="n">
-        <v>70.5625</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.89990234375</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.89990234375</v>
+        <v>0.734375</v>
       </c>
     </row>
   </sheetData>
@@ -1038,7 +842,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1072,33 +876,25 @@
           <t>Duration</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Duration</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" t="n">
         <v>-7</v>
       </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
       <c r="D2" t="n">
-        <v>61.40625</v>
+        <v>90.5</v>
       </c>
       <c r="E2" t="n">
-        <v>76.5</v>
+        <v>52.4375</v>
       </c>
       <c r="F2" t="n">
-        <v>0.303955078125</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.303955078125</v>
+        <v>0.7998046875</v>
       </c>
     </row>
     <row r="3">
@@ -1106,22 +902,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-102</v>
+        <v>-96</v>
       </c>
       <c r="C3" t="n">
-        <v>-78</v>
+        <v>-58</v>
       </c>
       <c r="D3" t="n">
         <v>90.5</v>
       </c>
       <c r="E3" t="n">
-        <v>77</v>
+        <v>53.40625</v>
       </c>
       <c r="F3" t="n">
-        <v>2.240234375</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.240234375</v>
+        <v>0.60498046875</v>
       </c>
     </row>
     <row r="4">
@@ -1129,22 +922,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>54</v>
+        <v>-49</v>
       </c>
       <c r="C4" t="n">
-        <v>-120</v>
+        <v>103</v>
       </c>
       <c r="D4" t="n">
         <v>90.5</v>
       </c>
       <c r="E4" t="n">
-        <v>79.375</v>
+        <v>54.21875</v>
       </c>
       <c r="F4" t="n">
-        <v>1.5263671875</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.5263671875</v>
+        <v>0.61181640625</v>
       </c>
     </row>
     <row r="5">
@@ -1152,22 +942,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-93</v>
+        <v>-48</v>
       </c>
       <c r="C5" t="n">
-        <v>-95</v>
+        <v>-98</v>
       </c>
       <c r="D5" t="n">
         <v>90.5</v>
       </c>
       <c r="E5" t="n">
-        <v>80.9375</v>
+        <v>54.9375</v>
       </c>
       <c r="F5" t="n">
-        <v>1.4775390625</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.4775390625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1175,22 +962,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>71</v>
+        <v>-45</v>
       </c>
       <c r="C6" t="n">
-        <v>-75</v>
+        <v>-108</v>
       </c>
       <c r="D6" t="n">
-        <v>49.34375</v>
+        <v>90.5</v>
       </c>
       <c r="E6" t="n">
-        <v>82.5</v>
+        <v>56.03125</v>
       </c>
       <c r="F6" t="n">
-        <v>0.161865234375</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.161865234375</v>
+        <v>0.73779296875</v>
       </c>
     </row>
     <row r="7">
@@ -1198,22 +982,99 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C7" t="n">
-        <v>-108</v>
+        <v>91</v>
       </c>
       <c r="D7" t="n">
         <v>90.5</v>
       </c>
       <c r="E7" t="n">
-        <v>82.75</v>
+        <v>56.90625</v>
       </c>
       <c r="F7" t="n">
-        <v>0.734375</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.734375</v>
+        <v>0.50146484375</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>29</v>
+      </c>
+      <c r="D8" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>57.65625</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.426025390625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-106</v>
+      </c>
+      <c r="C9" t="n">
+        <v>78</v>
+      </c>
+      <c r="D9" t="n">
+        <v>77.1875</v>
+      </c>
+      <c r="E9" t="n">
+        <v>58.1875</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.30810546875</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>40</v>
+      </c>
+      <c r="C10" t="n">
+        <v>34</v>
+      </c>
+      <c r="D10" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.6845703125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>15</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-58</v>
+      </c>
+      <c r="D11" t="n">
+        <v>56.71875</v>
+      </c>
+      <c r="E11" t="n">
+        <v>59.28125</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.194091796875</v>
       </c>
     </row>
   </sheetData>
@@ -1227,7 +1088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1261,33 +1122,25 @@
           <t>Duration</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Duration</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>-7</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>90.5</v>
+        <v>64.5625</v>
       </c>
       <c r="E2" t="n">
-        <v>52.4375</v>
+        <v>88.625</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7998046875</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.7998046875</v>
+        <v>0.33203125</v>
       </c>
     </row>
     <row r="3">
@@ -1295,22 +1148,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-96</v>
+        <v>-58</v>
       </c>
       <c r="C3" t="n">
-        <v>-58</v>
+        <v>-46</v>
       </c>
       <c r="D3" t="n">
-        <v>90.5</v>
+        <v>64.5625</v>
       </c>
       <c r="E3" t="n">
-        <v>53.40625</v>
+        <v>89</v>
       </c>
       <c r="F3" t="n">
-        <v>0.60498046875</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.60498046875</v>
+        <v>0.2763671875</v>
       </c>
     </row>
     <row r="4">
@@ -1318,22 +1168,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-49</v>
+        <v>-121</v>
       </c>
       <c r="C4" t="n">
-        <v>103</v>
+        <v>-119</v>
       </c>
       <c r="D4" t="n">
-        <v>90.5</v>
+        <v>49.84375</v>
       </c>
       <c r="E4" t="n">
-        <v>54.21875</v>
+        <v>89.3125</v>
       </c>
       <c r="F4" t="n">
-        <v>0.61181640625</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.61181640625</v>
+        <v>0.2110595703125</v>
       </c>
     </row>
     <row r="5">
@@ -1341,22 +1188,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-48</v>
+        <v>94</v>
       </c>
       <c r="C5" t="n">
         <v>-98</v>
       </c>
       <c r="D5" t="n">
-        <v>90.5</v>
+        <v>84.4375</v>
       </c>
       <c r="E5" t="n">
-        <v>54.9375</v>
+        <v>89.5625</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
+        <v>0.43603515625</v>
       </c>
     </row>
     <row r="6">
@@ -1364,22 +1208,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-45</v>
+        <v>-73</v>
       </c>
       <c r="C6" t="n">
-        <v>-108</v>
+        <v>-101</v>
       </c>
       <c r="D6" t="n">
-        <v>90.5</v>
+        <v>47.40625</v>
       </c>
       <c r="E6" t="n">
-        <v>56.03125</v>
+        <v>90</v>
       </c>
       <c r="F6" t="n">
-        <v>0.73779296875</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.73779296875</v>
+        <v>0.194091796875</v>
       </c>
     </row>
     <row r="7">
@@ -1387,22 +1228,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>55</v>
+        <v>-72</v>
       </c>
       <c r="C7" t="n">
-        <v>91</v>
+        <v>-94</v>
       </c>
       <c r="D7" t="n">
-        <v>90.5</v>
+        <v>84.4375</v>
       </c>
       <c r="E7" t="n">
-        <v>56.90625</v>
+        <v>90.25</v>
       </c>
       <c r="F7" t="n">
-        <v>0.50146484375</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.50146484375</v>
+        <v>0.3759765625</v>
       </c>
     </row>
     <row r="8">
@@ -1410,22 +1248,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>-71</v>
       </c>
       <c r="D8" t="n">
-        <v>90.5</v>
+        <v>73.4375</v>
       </c>
       <c r="E8" t="n">
-        <v>57.65625</v>
+        <v>90.6875</v>
       </c>
       <c r="F8" t="n">
-        <v>0.426025390625</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.426025390625</v>
+        <v>0.32177734375</v>
       </c>
     </row>
     <row r="9">
@@ -1433,22 +1268,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-106</v>
+        <v>-32</v>
       </c>
       <c r="C9" t="n">
-        <v>78</v>
+        <v>-82</v>
       </c>
       <c r="D9" t="n">
-        <v>77.1875</v>
+        <v>87.875</v>
       </c>
       <c r="E9" t="n">
-        <v>58.1875</v>
+        <v>91.0625</v>
       </c>
       <c r="F9" t="n">
-        <v>0.30810546875</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.30810546875</v>
+        <v>0.4580078125</v>
       </c>
     </row>
     <row r="10">
@@ -1456,22 +1288,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>-118</v>
       </c>
       <c r="C10" t="n">
-        <v>34</v>
+        <v>-119</v>
       </c>
       <c r="D10" t="n">
         <v>90.5</v>
       </c>
       <c r="E10" t="n">
-        <v>58.5</v>
+        <v>91.5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6845703125</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.6845703125</v>
+        <v>0.74658203125</v>
       </c>
     </row>
     <row r="11">
@@ -1479,22 +1308,119 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>-58</v>
+        <v>108</v>
       </c>
       <c r="D11" t="n">
-        <v>56.71875</v>
+        <v>55.59375</v>
       </c>
       <c r="E11" t="n">
-        <v>59.28125</v>
+        <v>92.3125</v>
       </c>
       <c r="F11" t="n">
-        <v>0.194091796875</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.194091796875</v>
+        <v>0.216064453125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-115</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-123</v>
+      </c>
+      <c r="D12" t="n">
+        <v>61.40625</v>
+      </c>
+      <c r="E12" t="n">
+        <v>92.625</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.199951171875</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-108</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-82</v>
+      </c>
+      <c r="D13" t="n">
+        <v>60.1875</v>
+      </c>
+      <c r="E13" t="n">
+        <v>92.875</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.296142578125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>118</v>
+      </c>
+      <c r="C14" t="n">
+        <v>114</v>
+      </c>
+      <c r="D14" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>93.1875</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.78515625</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-123</v>
+      </c>
+      <c r="D15" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>94</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.92822265625</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>105</v>
+      </c>
+      <c r="C16" t="n">
+        <v>112</v>
+      </c>
+      <c r="D16" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>95</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.55322265625</v>
       </c>
     </row>
   </sheetData>
@@ -1508,7 +1434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1542,33 +1468,25 @@
           <t>Duration</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Duration</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>-3</v>
       </c>
       <c r="D2" t="n">
-        <v>64.5625</v>
+        <v>58.4375</v>
       </c>
       <c r="E2" t="n">
-        <v>88.625</v>
+        <v>112.75</v>
       </c>
       <c r="F2" t="n">
-        <v>0.33203125</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.33203125</v>
+        <v>0.281982421875</v>
       </c>
     </row>
     <row r="3">
@@ -1576,22 +1494,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-58</v>
+        <v>122</v>
       </c>
       <c r="C3" t="n">
-        <v>-46</v>
+        <v>-84</v>
       </c>
       <c r="D3" t="n">
-        <v>64.5625</v>
+        <v>90.5</v>
       </c>
       <c r="E3" t="n">
-        <v>89</v>
+        <v>113.1875</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2763671875</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.2763671875</v>
+        <v>1.2314453125</v>
       </c>
     </row>
     <row r="4">
@@ -1599,22 +1514,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-121</v>
+        <v>60</v>
       </c>
       <c r="C4" t="n">
-        <v>-119</v>
+        <v>-117</v>
       </c>
       <c r="D4" t="n">
-        <v>49.84375</v>
+        <v>90.5</v>
       </c>
       <c r="E4" t="n">
-        <v>89.3125</v>
+        <v>114.4375</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2110595703125</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.2110595703125</v>
+        <v>1.751953125</v>
       </c>
     </row>
     <row r="5">
@@ -1622,22 +1534,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>94</v>
+        <v>-71</v>
       </c>
       <c r="C5" t="n">
-        <v>-98</v>
+        <v>111</v>
       </c>
       <c r="D5" t="n">
-        <v>84.4375</v>
+        <v>90.5</v>
       </c>
       <c r="E5" t="n">
-        <v>89.5625</v>
+        <v>116.4375</v>
       </c>
       <c r="F5" t="n">
-        <v>0.43603515625</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.43603515625</v>
+        <v>0.91943359375</v>
       </c>
     </row>
     <row r="6">
@@ -1645,22 +1554,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-73</v>
+        <v>116</v>
       </c>
       <c r="C6" t="n">
-        <v>-101</v>
+        <v>-22</v>
       </c>
       <c r="D6" t="n">
-        <v>47.40625</v>
+        <v>74.1875</v>
       </c>
       <c r="E6" t="n">
-        <v>90</v>
+        <v>117.4375</v>
       </c>
       <c r="F6" t="n">
-        <v>0.194091796875</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.194091796875</v>
+        <v>0.2998046875</v>
       </c>
     </row>
     <row r="7">
@@ -1668,22 +1574,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-72</v>
+        <v>-39</v>
       </c>
       <c r="C7" t="n">
-        <v>-94</v>
+        <v>-4</v>
       </c>
       <c r="D7" t="n">
-        <v>84.4375</v>
+        <v>90.5</v>
       </c>
       <c r="E7" t="n">
-        <v>90.25</v>
+        <v>117.8125</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3759765625</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.3759765625</v>
+        <v>0.63818359375</v>
       </c>
     </row>
     <row r="8">
@@ -1691,206 +1594,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="C8" t="n">
-        <v>-71</v>
+        <v>48</v>
       </c>
       <c r="D8" t="n">
-        <v>73.4375</v>
+        <v>90.5</v>
       </c>
       <c r="E8" t="n">
-        <v>90.6875</v>
+        <v>118.8125</v>
       </c>
       <c r="F8" t="n">
-        <v>0.32177734375</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.32177734375</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>-32</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-82</v>
-      </c>
-      <c r="D9" t="n">
-        <v>87.875</v>
-      </c>
-      <c r="E9" t="n">
-        <v>91.0625</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.4580078125</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.4580078125</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-118</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-119</v>
-      </c>
-      <c r="D10" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>91.5</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.74658203125</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.74658203125</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>27</v>
-      </c>
-      <c r="C11" t="n">
-        <v>108</v>
-      </c>
-      <c r="D11" t="n">
-        <v>55.59375</v>
-      </c>
-      <c r="E11" t="n">
-        <v>92.3125</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.216064453125</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.216064453125</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-115</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-123</v>
-      </c>
-      <c r="D12" t="n">
-        <v>61.40625</v>
-      </c>
-      <c r="E12" t="n">
-        <v>92.625</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.199951171875</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.199951171875</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>-108</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-82</v>
-      </c>
-      <c r="D13" t="n">
-        <v>60.1875</v>
-      </c>
-      <c r="E13" t="n">
-        <v>92.875</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.296142578125</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.296142578125</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>118</v>
-      </c>
-      <c r="C14" t="n">
-        <v>114</v>
-      </c>
-      <c r="D14" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="E14" t="n">
-        <v>93.1875</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.78515625</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.78515625</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>-10</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-123</v>
-      </c>
-      <c r="D15" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="E15" t="n">
-        <v>94</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.92822265625</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.92822265625</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>105</v>
-      </c>
-      <c r="C16" t="n">
-        <v>112</v>
-      </c>
-      <c r="D16" t="n">
-        <v>90.5</v>
-      </c>
-      <c r="E16" t="n">
-        <v>95</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.55322265625</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.55322265625</v>
+        <v>0.8681640625</v>
       </c>
     </row>
   </sheetData>
@@ -1904,7 +1620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1938,33 +1654,25 @@
           <t>Duration</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Duration</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>-3</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>58.4375</v>
+        <v>62.65625</v>
       </c>
       <c r="E2" t="n">
-        <v>112.75</v>
+        <v>100.625</v>
       </c>
       <c r="F2" t="n">
-        <v>0.281982421875</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.281982421875</v>
+        <v>0.311767578125</v>
       </c>
     </row>
     <row r="3">
@@ -1972,22 +1680,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C3" t="n">
-        <v>-84</v>
+        <v>-94</v>
       </c>
       <c r="D3" t="n">
         <v>90.5</v>
       </c>
       <c r="E3" t="n">
-        <v>113.1875</v>
+        <v>101.125</v>
       </c>
       <c r="F3" t="n">
-        <v>1.2314453125</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.2314453125</v>
+        <v>1.1083984375</v>
       </c>
     </row>
     <row r="4">
@@ -1995,22 +1700,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>-1</v>
       </c>
       <c r="C4" t="n">
-        <v>-117</v>
+        <v>-68</v>
       </c>
       <c r="D4" t="n">
-        <v>90.5</v>
+        <v>46.03125</v>
       </c>
       <c r="E4" t="n">
-        <v>114.4375</v>
+        <v>102.25</v>
       </c>
       <c r="F4" t="n">
-        <v>1.751953125</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.751953125</v>
+        <v>0.18408203125</v>
       </c>
     </row>
     <row r="5">
@@ -2018,22 +1720,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-71</v>
+        <v>-8</v>
       </c>
       <c r="C5" t="n">
-        <v>111</v>
+        <v>-58</v>
       </c>
       <c r="D5" t="n">
-        <v>90.5</v>
+        <v>49.34375</v>
       </c>
       <c r="E5" t="n">
-        <v>116.4375</v>
+        <v>102.4375</v>
       </c>
       <c r="F5" t="n">
-        <v>0.91943359375</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.91943359375</v>
+        <v>0.2117919921875</v>
       </c>
     </row>
     <row r="6">
@@ -2041,22 +1740,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>-22</v>
+        <v>-58</v>
       </c>
       <c r="D6" t="n">
-        <v>74.1875</v>
+        <v>90.5</v>
       </c>
       <c r="E6" t="n">
-        <v>117.4375</v>
+        <v>102.875</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2998046875</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.2998046875</v>
+        <v>0.7138671875</v>
       </c>
     </row>
     <row r="7">
@@ -2064,22 +1760,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-39</v>
+        <v>92</v>
       </c>
       <c r="C7" t="n">
-        <v>-4</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>90.5</v>
+        <v>89.625</v>
       </c>
       <c r="E7" t="n">
-        <v>117.8125</v>
+        <v>103.625</v>
       </c>
       <c r="F7" t="n">
-        <v>0.63818359375</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.63818359375</v>
+        <v>0.466064453125</v>
       </c>
     </row>
     <row r="8">
@@ -2087,22 +1780,119 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>-57</v>
       </c>
       <c r="C8" t="n">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>90.5</v>
       </c>
       <c r="E8" t="n">
-        <v>118.8125</v>
+        <v>104.0625</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8681640625</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.8681640625</v>
+        <v>0.64794921875</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>96</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-122</v>
+      </c>
+      <c r="D9" t="n">
+        <v>67.8125</v>
+      </c>
+      <c r="E9" t="n">
+        <v>104.8125</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.280029296875</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>105.3125</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.6328125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-61</v>
+      </c>
+      <c r="D11" t="n">
+        <v>90.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>106.0625</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.744140625</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>58</v>
+      </c>
+      <c r="C12" t="n">
+        <v>100</v>
+      </c>
+      <c r="D12" t="n">
+        <v>79.5625</v>
+      </c>
+      <c r="E12" t="n">
+        <v>107</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.196044921875</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-113</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-81</v>
+      </c>
+      <c r="D13" t="n">
+        <v>55.59375</v>
+      </c>
+      <c r="E13" t="n">
+        <v>107.25</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.236083984375</v>
       </c>
     </row>
   </sheetData>

--- a/m n° 001.xlsx
+++ b/m n° 001.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="img_1.jpg" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="street.jpg" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="img_2.jpg" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="img_3.jpg" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="img_4.jpg" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="img_5.jpg" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="img_1.jpg" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="street.jpg" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="img_2.jpg" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="img_3.jpg" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="img_4.jpg" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="img_5.jpg" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/m n° 001.xlsx
+++ b/m n° 001.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="360" yWindow="570" windowWidth="28215" windowHeight="11955" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="img_1.jpg" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="img_2.jpg" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="img_3.jpg" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="img_4.jpg" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="img_5.jpg" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="street.jpg" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="img_1.jpg" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="img_2.jpg" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="img_3.jpg" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="img_4.jpg" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="img_5.jpg" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="street.jpg" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/m n° 001.xlsx
+++ b/m n° 001.xlsx
@@ -572,19 +572,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5" t="n">
-        <v>51.72835159301758</v>
+        <v>52.30021667480469</v>
       </c>
       <c r="E5" t="n">
-        <v>66.40760803222656</v>
+        <v>66.3616943359375</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3400270044803619</v>
+        <v>0.3898895084857941</v>
       </c>
       <c r="G5" t="n">
         <v>0.3400270044803619</v>
@@ -601,13 +601,13 @@
         <v>71</v>
       </c>
       <c r="D6" t="n">
-        <v>56.54074478149414</v>
+        <v>56.42783355712891</v>
       </c>
       <c r="E6" t="n">
-        <v>66.78765869140625</v>
+        <v>66.79560089111328</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7279419898986816</v>
+        <v>0.7200009822845459</v>
       </c>
       <c r="G6" t="n">
         <v>0.7279419898986816</v>
@@ -813,19 +813,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-86</v>
+        <v>-87</v>
       </c>
       <c r="C3" t="n">
         <v>-60</v>
       </c>
       <c r="D3" t="n">
-        <v>54.27056503295898</v>
+        <v>54.81571960449219</v>
       </c>
       <c r="E3" t="n">
-        <v>53.4715461730957</v>
+        <v>53.42763900756836</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5408340096473694</v>
+        <v>0.5847430229187012</v>
       </c>
       <c r="G3" t="n">
         <v>0.5408340096473694</v>
@@ -928,19 +928,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>53.7308349609375</v>
+        <v>54.98033142089844</v>
       </c>
       <c r="E8" t="n">
-        <v>57.57965469360352</v>
+        <v>57.45763778686523</v>
       </c>
       <c r="F8" t="n">
-        <v>0.503958523273468</v>
+        <v>0.6259744763374329</v>
       </c>
       <c r="G8" t="n">
         <v>0.5000219941139221</v>

--- a/m n° 001.xlsx
+++ b/m n° 001.xlsx
@@ -1255,19 +1255,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C10" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D10" t="n">
-        <v>59.91534042358398</v>
+        <v>61.30865859985352</v>
       </c>
       <c r="E10" t="n">
-        <v>92.97968292236328</v>
+        <v>92.88961791992188</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9729815125465393</v>
+        <v>1.063049554824829</v>
       </c>
       <c r="G10" t="n">
         <v>0.9729815125465393</v>
